--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/146.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/146.xlsx
@@ -479,13 +479,13 @@
         <v>-0.2623092435391658</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.93305161469583</v>
+        <v>-1.947240362043281</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04221970658082171</v>
+        <v>0.04224890754263989</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2912859383926342</v>
+        <v>-0.2940045479379062</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.2432808081614262</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.035284182021257</v>
+        <v>-2.054356060208752</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02277040596182694</v>
+        <v>0.02395888510782662</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.2930233956208155</v>
+        <v>-0.2952105476609967</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.2343252646183042</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.158206360818906</v>
+        <v>-2.1804742842774</v>
       </c>
       <c r="F4" t="n">
-        <v>0.04876072202809269</v>
+        <v>0.05278023442236433</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.303858412503449</v>
+        <v>-0.3089481401483567</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.2286767980784617</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.298238113169868</v>
+        <v>-2.325042406046816</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0675792818718149</v>
+        <v>0.07186160292245011</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.3332929820161684</v>
+        <v>-0.3387550219242578</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.2165846195627139</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.493247976383997</v>
+        <v>-2.525281431498534</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1007106931507151</v>
+        <v>0.1049433725662594</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.3141429912558099</v>
+        <v>-0.3194765469318994</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1967410940800939</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.423290502132152</v>
+        <v>-2.457338823612143</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2241212580347729</v>
+        <v>0.2330625925434977</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.3769323594053385</v>
+        <v>-0.3825871256614278</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.1678495982251801</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.28577368261778</v>
+        <v>-2.321371115122226</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3167204280563844</v>
+        <v>0.3259026705001092</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.3969320981546058</v>
+        <v>-0.4045053676021492</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.1271943105776392</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.007398723532992</v>
+        <v>-2.044571547927527</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4314699876651718</v>
+        <v>0.4452645220280771</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.3445674733741653</v>
+        <v>-0.3519027549828906</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.06919707758486884</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.651928115079905</v>
+        <v>-1.691607842046531</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5068259897331515</v>
+        <v>0.5249145255314194</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.2611709864695514</v>
+        <v>-0.2673586702788224</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.009874036969996407</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.094386850845055</v>
+        <v>-1.132158294956863</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4879154468597021</v>
+        <v>0.5059762417442426</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.2103058310784741</v>
+        <v>-0.2174629868201086</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.1117409220064845</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.5257725818887531</v>
+        <v>-0.5604472639997438</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3905287791480009</v>
+        <v>0.4100875833738138</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.1119905727809551</v>
+        <v>-0.1170087580694083</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.2368252846371567</v>
       </c>
       <c r="E13" t="n">
-        <v>0.03972156429727693</v>
+        <v>0.004185453812650109</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2523527479205835</v>
+        <v>0.2726138352781235</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01408019972473836</v>
+        <v>0.008440033949558057</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.3795829003290516</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6336939484964811</v>
+        <v>0.6037512822481255</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.02926570799815909</v>
+        <v>-0.0106033733001641</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1553953343476095</v>
+        <v>0.1505713354552472</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.5281761474551504</v>
       </c>
       <c r="E15" t="n">
-        <v>1.170496689648064</v>
+        <v>1.141672420237345</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.2488350401494638</v>
+        <v>-0.2313553444051048</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3077119313354777</v>
+        <v>0.3045991088056603</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.6744788542805292</v>
       </c>
       <c r="E16" t="n">
-        <v>1.718379735761553</v>
+        <v>1.692853714988197</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.6311223518882703</v>
+        <v>-0.6151027042348199</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4628143000807997</v>
+        <v>0.4615893197325273</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.8220350826843367</v>
       </c>
       <c r="E17" t="n">
-        <v>2.318408399441847</v>
+        <v>2.298293316893398</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.8508230883677567</v>
+        <v>-0.8317300394829437</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5975358575251272</v>
+        <v>0.5964481216974001</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.9715264257362346</v>
       </c>
       <c r="E18" t="n">
-        <v>2.796603350176264</v>
+        <v>2.777884073602724</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.153460396603221</v>
+        <v>-1.13768019683668</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7590784983994474</v>
+        <v>0.7588054694064474</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.115691777364911</v>
       </c>
       <c r="E19" t="n">
-        <v>3.229809839085511</v>
+        <v>3.21370842873897</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.441881216577507</v>
+        <v>-1.42691134350142</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9413903233669439</v>
+        <v>0.939885013785217</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.244641329791625</v>
       </c>
       <c r="E20" t="n">
-        <v>3.542413435589518</v>
+        <v>3.528161906174158</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.716335216514161</v>
+        <v>-1.702591783834437</v>
       </c>
       <c r="G20" t="n">
-        <v>1.120243294407078</v>
+        <v>1.122357444042714</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.353614256978575</v>
       </c>
       <c r="E21" t="n">
-        <v>3.908130661544602</v>
+        <v>3.896932092687332</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.982522424160089</v>
+        <v>-1.969941919784774</v>
       </c>
       <c r="G21" t="n">
-        <v>1.252936845053133</v>
+        <v>1.253412820730769</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.440569254526469</v>
       </c>
       <c r="E22" t="n">
-        <v>4.260611091507507</v>
+        <v>4.252030388877237</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.256929702557834</v>
+        <v>-2.247132779867836</v>
       </c>
       <c r="G22" t="n">
-        <v>1.407998332451909</v>
+        <v>1.407899049181728</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.502707954702198</v>
       </c>
       <c r="E23" t="n">
-        <v>4.377479180896203</v>
+        <v>4.367552313926115</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.54986499122921</v>
+        <v>-2.542726816112757</v>
       </c>
       <c r="G23" t="n">
-        <v>1.543863107551418</v>
+        <v>1.5449742041486</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.539534761373123</v>
       </c>
       <c r="E24" t="n">
-        <v>4.572583947236241</v>
+        <v>4.564600404275152</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.862921932665444</v>
+        <v>-2.862531369801125</v>
       </c>
       <c r="G24" t="n">
-        <v>1.622762646336034</v>
+        <v>1.62470013015267</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.551770131526709</v>
       </c>
       <c r="E25" t="n">
-        <v>4.59695653001778</v>
+        <v>4.588002055076237</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.085836965017065</v>
+        <v>-3.088215383357156</v>
       </c>
       <c r="G25" t="n">
-        <v>1.711837260266192</v>
+        <v>1.713625819177555</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.544766546878795</v>
       </c>
       <c r="E26" t="n">
-        <v>4.651768195398584</v>
+        <v>4.642234081364951</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.223307062992529</v>
+        <v>-3.230013793898118</v>
       </c>
       <c r="G26" t="n">
-        <v>1.830474927941069</v>
+        <v>1.835100360293068</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.523169422556145</v>
       </c>
       <c r="E27" t="n">
-        <v>4.643918976861859</v>
+        <v>4.634070952488679</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.357732230674402</v>
+        <v>-3.366787448934217</v>
       </c>
       <c r="G27" t="n">
-        <v>1.881326942899328</v>
+        <v>1.882892114452782</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.491280673421496</v>
       </c>
       <c r="E28" t="n">
-        <v>4.595727169525236</v>
+        <v>4.583597089985965</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.425281355600293</v>
+        <v>-3.438391857432607</v>
       </c>
       <c r="G28" t="n">
-        <v>1.862892375703515</v>
+        <v>1.86511748899406</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.449012409326954</v>
       </c>
       <c r="E29" t="n">
-        <v>4.500597736162079</v>
+        <v>4.485192768754901</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.482126867971732</v>
+        <v>-3.49711426162491</v>
       </c>
       <c r="G29" t="n">
-        <v>1.902665545747958</v>
+        <v>1.904286199128867</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.397957989172442</v>
       </c>
       <c r="E30" t="n">
-        <v>4.447330801661457</v>
+        <v>4.435543833423552</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.590174806843248</v>
+        <v>-3.608231221583516</v>
       </c>
       <c r="G30" t="n">
-        <v>1.92667311650677</v>
+        <v>1.931054720827587</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.34049125728645</v>
       </c>
       <c r="E31" t="n">
-        <v>4.258288154994871</v>
+        <v>4.245083480060694</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.536770627822081</v>
+        <v>-3.556648452555757</v>
       </c>
       <c r="G31" t="n">
-        <v>1.912117897088501</v>
+        <v>1.914861327451319</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.278300637002588</v>
       </c>
       <c r="E32" t="n">
-        <v>4.142351576288175</v>
+        <v>4.128286933028452</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.463338239113873</v>
+        <v>-3.481929031455414</v>
       </c>
       <c r="G32" t="n">
-        <v>1.824306224756979</v>
+        <v>1.82530343760307</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.214431053536894</v>
       </c>
       <c r="E33" t="n">
-        <v>3.916749325425236</v>
+        <v>3.901693309511785</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.468157127837917</v>
+        <v>-3.487421732373412</v>
       </c>
       <c r="G33" t="n">
-        <v>1.78543974457699</v>
+        <v>1.786247151171263</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.150347171579546</v>
       </c>
       <c r="E34" t="n">
-        <v>3.75039290599519</v>
+        <v>3.73434259733183</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.431211340921518</v>
+        <v>-3.44865526548765</v>
       </c>
       <c r="G34" t="n">
-        <v>1.688413708743743</v>
+        <v>1.688463350378834</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.089470434847815</v>
       </c>
       <c r="E35" t="n">
-        <v>3.652185691256398</v>
+        <v>3.637148655968129</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.342771847910906</v>
+        <v>-3.359702565573083</v>
       </c>
       <c r="G35" t="n">
-        <v>1.622273530225579</v>
+        <v>1.623648895527215</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.031579060018889</v>
       </c>
       <c r="E36" t="n">
-        <v>3.450059553647179</v>
+        <v>3.43092416336773</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.269013868478425</v>
+        <v>-3.279851805457241</v>
       </c>
       <c r="G36" t="n">
-        <v>1.528186571199332</v>
+        <v>1.527415665807332</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.9770756340571418</v>
       </c>
       <c r="E37" t="n">
-        <v>3.275618847937772</v>
+        <v>3.256924392181777</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.191318139344764</v>
+        <v>-3.200625215900262</v>
       </c>
       <c r="G37" t="n">
-        <v>1.403841575537093</v>
+        <v>1.402289544416456</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.923882658449887</v>
       </c>
       <c r="E38" t="n">
-        <v>3.155770800395531</v>
+        <v>3.135712659722627</v>
       </c>
       <c r="F38" t="n">
-        <v>-3.074279954353478</v>
+        <v>-3.081455360696248</v>
       </c>
       <c r="G38" t="n">
-        <v>1.345460092574017</v>
+        <v>1.344505221122563</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.8700206430351654</v>
       </c>
       <c r="E39" t="n">
-        <v>2.834177687795799</v>
+        <v>2.809137863036715</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.944310853445058</v>
+        <v>-2.948340586175966</v>
       </c>
       <c r="G39" t="n">
-        <v>1.217155446489234</v>
+        <v>1.21200731692069</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.814522225094082</v>
       </c>
       <c r="E40" t="n">
-        <v>2.582566140241412</v>
+        <v>2.556258993739419</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.842097266744813</v>
+        <v>-2.84339378944954</v>
       </c>
       <c r="G40" t="n">
-        <v>1.191854273121877</v>
+        <v>1.187983685632878</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.7557693110151713</v>
       </c>
       <c r="E41" t="n">
-        <v>2.407871386164187</v>
+        <v>2.382078176590193</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.75825254507629</v>
+        <v>-2.758562805295608</v>
       </c>
       <c r="G41" t="n">
-        <v>1.071528789853909</v>
+        <v>1.067001180724001</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.6936786389128761</v>
       </c>
       <c r="E42" t="n">
-        <v>2.183089682328338</v>
+        <v>2.153450706082891</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.663058869597134</v>
+        <v>-2.660054090626044</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9784434238180248</v>
+        <v>0.9727857374657537</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.6272114740662493</v>
       </c>
       <c r="E43" t="n">
-        <v>2.065459447836187</v>
+        <v>2.03794046141874</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.587184550456881</v>
+        <v>-2.585360950391336</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8732367385314167</v>
+        <v>0.8675162701112364</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.5581837147269753</v>
       </c>
       <c r="E44" t="n">
-        <v>1.860674562653424</v>
+        <v>1.831577264249705</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.574614996442248</v>
+        <v>-2.573311903521112</v>
       </c>
       <c r="G44" t="n">
-        <v>0.798568419114255</v>
+        <v>0.7930581976191655</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.4876226102372161</v>
       </c>
       <c r="E45" t="n">
-        <v>1.624800873470942</v>
+        <v>1.594261047553405</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.469385680410231</v>
+        <v>-2.464931073684869</v>
       </c>
       <c r="G45" t="n">
-        <v>0.6962248881339188</v>
+        <v>0.6908285503899203</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.4179024934056864</v>
       </c>
       <c r="E46" t="n">
-        <v>1.432676065284448</v>
+        <v>1.399422009965912</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.424830122844016</v>
+        <v>-2.419773246281153</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6729152203625615</v>
+        <v>0.6681131221915627</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.3506640215964681</v>
       </c>
       <c r="E47" t="n">
-        <v>1.155134063635523</v>
+        <v>1.11838319313926</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.362981025665032</v>
+        <v>-2.358165787061215</v>
       </c>
       <c r="G47" t="n">
-        <v>0.5635444779206817</v>
+        <v>0.5570998256474108</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.287724530597868</v>
       </c>
       <c r="E48" t="n">
-        <v>0.9989439590624739</v>
+        <v>0.9619945220258475</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.312988979032319</v>
+        <v>-2.306601998658639</v>
       </c>
       <c r="G48" t="n">
-        <v>0.4779798196010683</v>
+        <v>0.4696458650981615</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.2298287013722352</v>
       </c>
       <c r="E49" t="n">
-        <v>0.7787891476267148</v>
+        <v>0.7378727599270894</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.251988169794153</v>
+        <v>-2.245388752423246</v>
       </c>
       <c r="G49" t="n">
-        <v>0.4035348875418156</v>
+        <v>0.3948665820260907</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.176796949532126</v>
       </c>
       <c r="E50" t="n">
-        <v>0.6568765920839293</v>
+        <v>0.6156287734676678</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.203373678535212</v>
+        <v>-2.196061757695941</v>
       </c>
       <c r="G50" t="n">
-        <v>0.3291352169733811</v>
+        <v>0.3211735747336559</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.1284414272572697</v>
       </c>
       <c r="E51" t="n">
-        <v>0.4959719922253362</v>
+        <v>0.45167997333953</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.15337652173418</v>
+        <v>-2.148421848537681</v>
       </c>
       <c r="G51" t="n">
-        <v>0.2701098528022151</v>
+        <v>0.263634539519035</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.08311129910719257</v>
       </c>
       <c r="E52" t="n">
-        <v>0.3790601013939131</v>
+        <v>0.334397230293016</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.07864031008079</v>
+        <v>-2.070933446232929</v>
       </c>
       <c r="G52" t="n">
-        <v>0.2391758139001325</v>
+        <v>0.2320142780142253</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.04021850785375933</v>
       </c>
       <c r="E53" t="n">
-        <v>0.2468673472430395</v>
+        <v>0.2003224741529611</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.028546060081713</v>
+        <v>-2.020912928662443</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1406094273309771</v>
+        <v>0.1342012762599788</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.00230909363607639</v>
       </c>
       <c r="E54" t="n">
-        <v>0.2080899299965954</v>
+        <v>0.1627846377356984</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.979346089538317</v>
+        <v>-1.972371439808047</v>
       </c>
       <c r="G54" t="n">
-        <v>0.08253601451508362</v>
+        <v>0.07261498773735901</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.04541175638967344</v>
       </c>
       <c r="E55" t="n">
-        <v>0.02449034261291739</v>
+        <v>-0.02587839642725091</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.968460700996548</v>
+        <v>-1.960509279093459</v>
       </c>
       <c r="G55" t="n">
-        <v>0.04034792492827676</v>
+        <v>0.02997282319427955</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.08989405546325936</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.09354870534468729</v>
+        <v>-0.145413993678037</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.859991538250804</v>
+        <v>-1.850998372034852</v>
       </c>
       <c r="G56" t="n">
-        <v>0.01168864095182991</v>
+        <v>0.00381314154946839</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.1355161489108678</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.2476436409072823</v>
+        <v>-0.3014945946442678</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.781457741512961</v>
+        <v>-1.770294213809873</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.04086871017661052</v>
+        <v>-0.04791928240760863</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.1818205887954294</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.287243065228908</v>
+        <v>-0.3399069998679848</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.767128829548783</v>
+        <v>-1.758167054366786</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.122162727830316</v>
+        <v>-0.1321041952813133</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.2281217275631819</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.5154077004913922</v>
+        <v>-0.5753032533247397</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.72372451990225</v>
+        <v>-1.714618199959252</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1419974811453106</v>
+        <v>-0.152578449660126</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.2731405865043868</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.5348964224088415</v>
+        <v>-0.5971105316105521</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.653693313221814</v>
+        <v>-1.643010141340635</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1839767838551175</v>
+        <v>-0.1951140306925691</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.3160941351911741</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.6716357663148048</v>
+        <v>-0.7385994119562413</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.661068016128994</v>
+        <v>-1.649618319000088</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.2279373718242876</v>
+        <v>-0.2400528508826479</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.3561274221408469</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.8352370749973063</v>
+        <v>-0.9080555134832867</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.600334395691464</v>
+        <v>-1.58734434782665</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.2824657878754547</v>
+        <v>-0.2960997169483602</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.3934664723362026</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.9080584335794686</v>
+        <v>-0.9841751207028118</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.634733128713273</v>
+        <v>-1.622055531139913</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.341583135076348</v>
+        <v>-0.3551820229950716</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.427683753134645</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.105154705515507</v>
+        <v>-1.186537786102758</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.600934475456828</v>
+        <v>-1.58838974225974</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.3825155833049733</v>
+        <v>-0.3979672722510601</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.4593370438677061</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.27161916850428</v>
+        <v>-1.359461501845711</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.549610864965205</v>
+        <v>-1.534040912123755</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.4393683959168672</v>
+        <v>-0.4560377649707718</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.4878682611368576</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.395791878491792</v>
+        <v>-1.485392109734677</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.581492475078288</v>
+        <v>-1.567719841436746</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.4389887834132309</v>
+        <v>-0.4553997239550447</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.5131894158732538</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.533689040533846</v>
+        <v>-1.625771353531276</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.547826686198115</v>
+        <v>-1.532888934180028</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.4887778833613085</v>
+        <v>-0.5061480754988492</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.5348709079464788</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.680382992323625</v>
+        <v>-1.775721212563781</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.580363857904015</v>
+        <v>-1.565021672564747</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.4995121569256692</v>
+        <v>-0.517409426424028</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.5518356623684937</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.77912604471178</v>
+        <v>-1.875188448805027</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.595435934346466</v>
+        <v>-1.580650027329833</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.505511494531213</v>
+        <v>-0.5232028972487537</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.5632496567856299</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.902083994687656</v>
+        <v>-2.000958451403993</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.603899833129464</v>
+        <v>-1.588802935869468</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.5850184133216462</v>
+        <v>-0.6049101085121863</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.5681557777680316</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.976911459346727</v>
+        <v>-2.078007379233382</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.616955583158369</v>
+        <v>-1.601749182291555</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.6252354379857263</v>
+        <v>-0.6468996315586296</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.5668229366289986</v>
       </c>
       <c r="E72" t="n">
-        <v>-2.061628559749568</v>
+        <v>-2.163985961186768</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.615739363098642</v>
+        <v>-1.600113928429737</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.6339227241266331</v>
+        <v>-0.6545590438435367</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.5589433658050125</v>
       </c>
       <c r="E73" t="n">
-        <v>-2.047743502405026</v>
+        <v>-2.149186183713272</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.606901692004372</v>
+        <v>-1.590122819343649</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.6824897638226201</v>
+        <v>-0.705310315483523</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.5455715472621125</v>
       </c>
       <c r="E74" t="n">
-        <v>-2.091320097726287</v>
+        <v>-2.192605093840715</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.596249181133102</v>
+        <v>-1.578486236059107</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.6809523331828932</v>
+        <v>-0.7041481172031597</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.5270736437491208</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.99103085440986</v>
+        <v>-2.089823548433106</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.551576089695569</v>
+        <v>-1.530701782139847</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.7012338612137059</v>
+        <v>-0.7258692526516084</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.5042648345689431</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.971851662687683</v>
+        <v>-2.068083432359475</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.43905748356969</v>
+        <v>-1.415452886083969</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.7040225530673415</v>
+        <v>-0.7274315041088807</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.4771651052447554</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.82379329595695</v>
+        <v>-1.918167884457106</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.452378962351141</v>
+        <v>-1.428981691694329</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.6646727969692612</v>
+        <v>-0.6879503436826185</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.445942631591465</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.678309724034534</v>
+        <v>-1.769028352115056</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.416693926961241</v>
+        <v>-1.39263963466352</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.6733221218598043</v>
+        <v>-0.6974012349750706</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.4107940647655597</v>
       </c>
       <c r="E79" t="n">
-        <v>-1.513680541496033</v>
+        <v>-1.602070392871555</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.362199092016165</v>
+        <v>-1.339549365981898</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.6470675370890842</v>
+        <v>-0.6694194133128054</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.3717905900037677</v>
       </c>
       <c r="E80" t="n">
-        <v>-1.321728018984267</v>
+        <v>-1.404413462468608</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.350517247240804</v>
+        <v>-1.327184218699992</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.580432402268102</v>
+        <v>-0.6005314242875511</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.3292288862553583</v>
       </c>
       <c r="E81" t="n">
-        <v>-1.165151001667127</v>
+        <v>-1.245401084935833</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.237938779143198</v>
+        <v>-1.213973549779023</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.5242030301910262</v>
+        <v>-0.5429631881111121</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.2832945022916699</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.9514481427450933</v>
+        <v>-1.026777863947437</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.207336171157752</v>
+        <v>-1.183470225063758</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.4863542035304</v>
+        <v>-0.5031272359987591</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.235417553617789</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.6859398574614373</v>
+        <v>-0.7568456329483274</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.121489723556593</v>
+        <v>-1.098225317276054</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.4580599315766803</v>
+        <v>-0.4734605188395853</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.1864236797252496</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.3824133799386097</v>
+        <v>-0.446199960934229</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.057590718857974</v>
+        <v>-1.035444709415071</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.4039461691833312</v>
+        <v>-0.4182955218207819</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.1368814406466078</v>
       </c>
       <c r="E85" t="n">
-        <v>-0.1599458523268513</v>
+        <v>-0.2181667299999266</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.9957591422560814</v>
+        <v>-0.9758440862960868</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.3674668676319774</v>
+        <v>-0.3808876296836101</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.0879128541561898</v>
       </c>
       <c r="E86" t="n">
-        <v>0.1014494774847149</v>
+        <v>0.05004702439618325</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.9421841376082776</v>
+        <v>-0.9229275633372828</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.2780929438431832</v>
+        <v>-0.2891922294302711</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.04006158443145424</v>
       </c>
       <c r="E87" t="n">
-        <v>0.3470164259427398</v>
+        <v>0.3021622885419337</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.836808086743124</v>
+        <v>-0.8199532915816741</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.2148115394870184</v>
+        <v>-0.2244376365503794</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.005498107817426015</v>
       </c>
       <c r="E88" t="n">
-        <v>0.5497178224997763</v>
+        <v>0.5086787907605146</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.7013696456861604</v>
+        <v>-0.6872699612722551</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.1845024011678447</v>
+        <v>-0.1928859973058424</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.04726045194689638</v>
       </c>
       <c r="E89" t="n">
-        <v>0.824138241330339</v>
+        <v>0.7907834426935298</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.5442188294692936</v>
+        <v>-0.5327589120037511</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.1095084910264103</v>
+        <v>-0.115621712383045</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.0834741182121698</v>
       </c>
       <c r="E90" t="n">
-        <v>1.068014454099092</v>
+        <v>1.040604971288463</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.4068239239705123</v>
+        <v>-0.395745079056697</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.05717890740015159</v>
+        <v>-0.06205546802378665</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.1137698322040444</v>
       </c>
       <c r="E91" t="n">
-        <v>1.241895961389681</v>
+        <v>1.218906044150233</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.2271912872498332</v>
+        <v>-0.2170410329218359</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.03403568511115781</v>
+        <v>-0.03652798720233896</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.13828643840922</v>
       </c>
       <c r="E92" t="n">
-        <v>1.359152423570559</v>
+        <v>1.340053534493382</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.0774881763446916</v>
+        <v>-0.06946959222942102</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.03532198747924838</v>
+        <v>-0.03782889005133861</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.1574168715316001</v>
       </c>
       <c r="E93" t="n">
-        <v>1.459234340058078</v>
+        <v>1.444738982611536</v>
       </c>
       <c r="F93" t="n">
-        <v>0.08987275617189983</v>
+        <v>0.09717299662644333</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.03535264848915746</v>
+        <v>-0.03715872797761152</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.1717977592851617</v>
       </c>
       <c r="E94" t="n">
-        <v>1.459651913812077</v>
+        <v>1.449944054055625</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2288386734164989</v>
+        <v>0.2350029964563154</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.05757750052896967</v>
+        <v>-0.05801551495624228</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.1837496661921884</v>
       </c>
       <c r="E95" t="n">
-        <v>1.496167716565704</v>
+        <v>1.491336417432887</v>
       </c>
       <c r="F95" t="n">
-        <v>0.393724824419</v>
+        <v>0.4009403820842709</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.08238225754541756</v>
+        <v>-0.08100543219569065</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.1949114776308964</v>
       </c>
       <c r="E96" t="n">
-        <v>1.432954934469812</v>
+        <v>1.430421751032085</v>
       </c>
       <c r="F96" t="n">
-        <v>0.4368050033893521</v>
+        <v>0.4437884134081684</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1184965470740442</v>
+        <v>-0.1178307651445899</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.2050144347620033</v>
       </c>
       <c r="E97" t="n">
-        <v>1.36058473074774</v>
+        <v>1.359545176507013</v>
       </c>
       <c r="F97" t="n">
-        <v>0.5143160364395132</v>
+        <v>0.5218250637710565</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1527959968256714</v>
+        <v>-0.1536238440932166</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.2108522393654065</v>
       </c>
       <c r="E98" t="n">
-        <v>1.269515691125401</v>
+        <v>1.267659970001856</v>
       </c>
       <c r="F98" t="n">
-        <v>0.5390434109071428</v>
+        <v>0.546604999969959</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1928991377386606</v>
+        <v>-0.1933386122140241</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>0.2128817317781182</v>
       </c>
       <c r="E99" t="n">
-        <v>1.206813925861327</v>
+        <v>1.205291095702509</v>
       </c>
       <c r="F99" t="n">
-        <v>0.5645650515362269</v>
+        <v>0.5709513018858615</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.2154904618492909</v>
+        <v>-0.216607398638836</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>0.2081246328519297</v>
       </c>
       <c r="E100" t="n">
-        <v>1.109054945886444</v>
+        <v>1.108787757085808</v>
       </c>
       <c r="F100" t="n">
-        <v>0.5379483748389613</v>
+        <v>0.5448894434631413</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.2321350100856501</v>
+        <v>-0.2328869348524681</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>0.198642015783259</v>
       </c>
       <c r="E101" t="n">
-        <v>1.020619833020104</v>
+        <v>1.020482588499559</v>
       </c>
       <c r="F101" t="n">
-        <v>0.5233668745550561</v>
+        <v>0.5301955194762361</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.2245135590511067</v>
+        <v>-0.224491658329743</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>0.1744524714695317</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9506499483594869</v>
+        <v>0.9528093594859408</v>
       </c>
       <c r="F102" t="n">
-        <v>0.4646466604348901</v>
+        <v>0.4703539884222522</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.2506411196379179</v>
+        <v>-0.2514324657031903</v>
       </c>
     </row>
   </sheetData>
